--- a/docs/example1.xlsx
+++ b/docs/example1.xlsx
@@ -550,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,14 +560,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="35.140625" customWidth="1"/>
@@ -594,6 +594,9 @@
       <c r="C2" t="s">
         <v>71</v>
       </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
       <c r="F2" t="str">
         <f>""""&amp;B2&amp;""""&amp;", "</f>
         <v xml:space="preserve">"Grupo Oesía", </v>
@@ -609,6 +612,9 @@
       <c r="C3" t="s">
         <v>72</v>
       </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" si="0">""""&amp;B3&amp;""""&amp;", "</f>
         <v xml:space="preserve">"Poesía", </v>
@@ -624,6 +630,9 @@
       <c r="C4" t="s">
         <v>72</v>
       </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Teatro y Poesía", </v>
@@ -639,6 +648,9 @@
       <c r="C5" t="s">
         <v>72</v>
       </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Poesía sentimental", </v>
@@ -654,6 +666,9 @@
       <c r="C6" t="s">
         <v>72</v>
       </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Poesía ingenua", </v>
@@ -669,6 +684,9 @@
       <c r="C7" t="s">
         <v>72</v>
       </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"sobre poesia ingenua y poesia sentimental", </v>
@@ -684,6 +702,9 @@
       <c r="C8" t="s">
         <v>72</v>
       </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"poesia afroantillana y negrista", </v>
@@ -699,6 +720,9 @@
       <c r="C9" t="s">
         <v>71</v>
       </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Oesia", </v>
@@ -714,6 +738,9 @@
       <c r="C10" t="s">
         <v>71</v>
       </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Cipherbit-Grupo Oesia", </v>
@@ -729,6 +756,9 @@
       <c r="C11" t="s">
         <v>71</v>
       </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Torre Oesia", </v>
@@ -744,6 +774,9 @@
       <c r="C12" t="s">
         <v>71</v>
       </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Tecnobit-Grupo Oesia", </v>
@@ -759,6 +792,9 @@
       <c r="C13" t="s">
         <v>71</v>
       </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Inster-Grupo Oesia", </v>
@@ -774,6 +810,9 @@
       <c r="C14" t="s">
         <v>71</v>
       </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"oesia networks", </v>
@@ -789,6 +828,9 @@
       <c r="C15" t="s">
         <v>71</v>
       </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"UAV Navigation-Grupo Oesia", </v>
@@ -804,6 +846,9 @@
       <c r="C16" t="s">
         <v>72</v>
       </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Director financiero de Grupo Oesía", </v>
@@ -819,6 +864,9 @@
       <c r="C17" t="s">
         <v>72</v>
       </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Presidencia de Grupo Oesía", </v>
@@ -834,6 +882,9 @@
       <c r="C18" t="s">
         <v>71</v>
       </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Instel-Grupo Oesia", </v>
@@ -849,6 +900,9 @@
       <c r="C19" t="s">
         <v>72</v>
       </c>
+      <c r="D19">
+        <v>55</v>
+      </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Poesía y elocuencia de las tribus de América y otros textos", </v>
@@ -864,6 +918,9 @@
       <c r="C20" t="s">
         <v>71</v>
       </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Oesia Group", </v>
@@ -879,6 +936,9 @@
       <c r="C21" t="s">
         <v>72</v>
       </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Libro de poesía", </v>
@@ -894,6 +954,9 @@
       <c r="C22" t="s">
         <v>71</v>
       </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Inster-Oesia Group", </v>
@@ -909,6 +972,9 @@
       <c r="C23" t="s">
         <v>72</v>
       </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"poesia moderna", </v>
@@ -924,6 +990,9 @@
       <c r="C24" t="s">
         <v>71</v>
       </c>
+      <c r="D24">
+        <v>101</v>
+      </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Oesia Networks, Tecnobit-Grupo Oesia, Cipherbit-Grupo Oesia, UAV Navigation-Grupo Oesia, Inster-Grupo Oesia", </v>
@@ -939,6 +1008,9 @@
       <c r="C25" t="s">
         <v>71</v>
       </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Oesia Networks Colombia S.A.S", </v>
@@ -954,6 +1026,9 @@
       <c r="C26" t="s">
         <v>72</v>
       </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"poesía clasista", </v>
@@ -969,6 +1044,9 @@
       <c r="C27" t="s">
         <v>72</v>
       </c>
+      <c r="D27">
+        <v>53</v>
+      </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Libro 'Estudio e índices de poesía y poética (1988-1999)'", </v>
@@ -984,6 +1062,9 @@
       <c r="C28" t="s">
         <v>72</v>
       </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"poesia espanola", </v>
@@ -999,6 +1080,9 @@
       <c r="C29" t="s">
         <v>71</v>
       </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Tecnobit-Oesia Group", </v>
@@ -1014,6 +1098,9 @@
       <c r="C30" t="s">
         <v>72</v>
       </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"estudio e indices de poesia y poetica (1988-1999) de isaac canton", </v>
@@ -1029,6 +1116,9 @@
       <c r="C31" t="s">
         <v>72</v>
       </c>
+      <c r="D31">
+        <v>27</v>
+      </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"poesia del marketing: the party", </v>
@@ -1044,6 +1134,9 @@
       <c r="C32" t="s">
         <v>71</v>
       </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Tecnobit - Grupo Oesia", </v>
@@ -1059,6 +1152,9 @@
       <c r="C33" t="s">
         <v>72</v>
       </c>
+      <c r="D33">
+        <v>81</v>
+      </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"inster-grupo oesia, airbus helicopters espana, tecnobit-grupo oesia, anzen engineering", </v>
@@ -1074,6 +1170,9 @@
       <c r="C34" t="s">
         <v>72</v>
       </c>
+      <c r="D34">
+        <v>38</v>
+      </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Premio Reina Sofía de Poesía Iberoamericana", </v>
@@ -1089,6 +1188,9 @@
       <c r="C35" t="s">
         <v>72</v>
       </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"poesia social", </v>
@@ -1104,6 +1206,9 @@
       <c r="C36" t="s">
         <v>71</v>
       </c>
+      <c r="D36">
+        <v>31</v>
+      </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Proyectos de Defensa de Grupo Oesia", </v>
@@ -1119,6 +1224,9 @@
       <c r="C37" t="s">
         <v>72</v>
       </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"poesia vanguardista", </v>
@@ -1134,6 +1242,9 @@
       <c r="C38" t="s">
         <v>72</v>
       </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Libro de poesía de Jose Hierro", </v>
@@ -1149,6 +1260,9 @@
       <c r="C39" t="s">
         <v>72</v>
       </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"poesia bucolica", </v>
@@ -1164,6 +1278,9 @@
       <c r="C40" t="s">
         <v>72</v>
       </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"poesia de senectud", </v>
@@ -1179,6 +1296,9 @@
       <c r="C41" t="s">
         <v>71</v>
       </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Oesia Networks S.L.", </v>
@@ -1194,6 +1314,9 @@
       <c r="C42" t="s">
         <v>72</v>
       </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"poesia y elocuencia de las tribus de america", </v>
@@ -1209,6 +1332,9 @@
       <c r="C43" t="s">
         <v>71</v>
       </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Oesia Networks SL", </v>
@@ -1224,6 +1350,9 @@
       <c r="C44" t="s">
         <v>72</v>
       </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"poesia epica", </v>
@@ -1239,6 +1368,9 @@
       <c r="C45" t="s">
         <v>72</v>
       </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"leccion de poesia", </v>
@@ -1254,6 +1386,9 @@
       <c r="C46" t="s">
         <v>72</v>
       </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"escribir poesía", </v>
@@ -1269,6 +1404,9 @@
       <c r="C47" t="s">
         <v>72</v>
       </c>
+      <c r="D47">
+        <v>74</v>
+      </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"reflexiones criticas sobre la poesia y sobre la pintura de jean-baptiste du bos", </v>
@@ -1284,6 +1422,9 @@
       <c r="C48" t="s">
         <v>72</v>
       </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Financial Director of Grupo Oesia", </v>
@@ -1299,6 +1440,9 @@
       <c r="C49" t="s">
         <v>72</v>
       </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"eloquencia y poesía", </v>
@@ -1314,6 +1458,9 @@
       <c r="C50" t="s">
         <v>71</v>
       </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Grupa Oesia", </v>
@@ -1329,6 +1476,9 @@
       <c r="C51" t="s">
         <v>72</v>
       </c>
+      <c r="D51">
+        <v>42</v>
+      </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"xxv premio reina sofia de poesia iberoamericana", </v>
@@ -1344,6 +1494,9 @@
       <c r="C52" t="s">
         <v>72</v>
       </c>
+      <c r="D52">
+        <v>32</v>
+      </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"Relevancia de Cipherbit-Grupo Oesia", </v>
@@ -1359,6 +1512,9 @@
       <c r="C53" t="s">
         <v>72</v>
       </c>
+      <c r="D53">
+        <v>13</v>
+      </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">"poesia dramatica", </v>
@@ -1394,7 +1550,7 @@
         <v xml:space="preserve">"poesia lirica", </v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>161675</v>
       </c>
@@ -1409,7 +1565,7 @@
         <v xml:space="preserve">"programa de RSC 'Oesia Sostenible'", </v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>161894</v>
       </c>
@@ -1424,7 +1580,7 @@
         <v xml:space="preserve">"Luis Furnells (Presidente ejecutivo de Grupo Oesia)", </v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>162165</v>
       </c>
@@ -1439,7 +1595,7 @@
         <v xml:space="preserve">"centro tecnológico de Valdepeñas de Tecnobit-Grupo Oesia", </v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>162447</v>
       </c>
@@ -1454,7 +1610,7 @@
         <v xml:space="preserve">"uav navigation-grupo oesia’s attitude and heading reference system (ahrs)", </v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>162725</v>
       </c>
@@ -1469,7 +1625,7 @@
         <v xml:space="preserve">"UAV Navigation-Oesia Group", </v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>162760</v>
       </c>
@@ -1499,7 +1655,7 @@
         <v xml:space="preserve">"poesía y poetas", </v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>163091</v>
       </c>
@@ -1514,7 +1670,7 @@
         <v xml:space="preserve">"Oesia Networks Sociedad Limitada", </v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>163203</v>
       </c>
@@ -1529,7 +1685,7 @@
         <v xml:space="preserve">"1147 specimens of oesia", </v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>163233</v>
       </c>
@@ -1559,7 +1715,7 @@
         <v xml:space="preserve">"ccoo - oesia", </v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>163926</v>
       </c>
@@ -1574,7 +1730,7 @@
         <v xml:space="preserve">"Executive President of Grupo Oesia", </v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>163942</v>
       </c>
@@ -1589,7 +1745,7 @@
         <v xml:space="preserve">"Emilio Varela (Tecnobit-Grupo Oesia)", </v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>163977</v>
       </c>
